--- a/data/trans_orig/MCS12_SP_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>112283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>97597</v>
+        <v>94414</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129100</v>
+        <v>127627</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4112779131988052</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3574842555586789</v>
+        <v>0.3458276293867267</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4728771945233606</v>
+        <v>0.4674820298028012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>128</v>
@@ -765,19 +765,19 @@
         <v>136526</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>119379</v>
+        <v>119746</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>152587</v>
+        <v>153707</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5234118285338983</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4576741512358184</v>
+        <v>0.4590825844621271</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5849888188353065</v>
+        <v>0.589282053835725</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>237</v>
@@ -786,19 +786,19 @@
         <v>248809</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>225552</v>
+        <v>226350</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>273811</v>
+        <v>272518</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4660665322893518</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4225014139941363</v>
+        <v>0.4239973810325698</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.512901205571084</v>
+        <v>0.5104789651223383</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>160727</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>143910</v>
+        <v>145383</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>175413</v>
+        <v>178596</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5887220868011948</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5271228054766394</v>
+        <v>0.5325179701971987</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6425157444413208</v>
+        <v>0.6541723706132733</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -836,19 +836,19 @@
         <v>124312</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>108251</v>
+        <v>107131</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141459</v>
+        <v>141092</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4765881714661016</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4150111811646935</v>
+        <v>0.4107179461642751</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5423258487641816</v>
+        <v>0.540917415537873</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>279</v>
@@ -857,19 +857,19 @@
         <v>285039</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>260037</v>
+        <v>261330</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>308296</v>
+        <v>307498</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5339334677106482</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4870987944289161</v>
+        <v>0.4895210348776617</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5774985860058637</v>
+        <v>0.5760026189674301</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>274983</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>251089</v>
+        <v>252287</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>297443</v>
+        <v>296007</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5576902848349904</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5092300418977969</v>
+        <v>0.5116602765739232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6032411724706301</v>
+        <v>0.6003292448038634</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>343</v>
@@ -982,19 +982,19 @@
         <v>344274</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>323618</v>
+        <v>324007</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>365155</v>
+        <v>365234</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6831525816961581</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6421647239367476</v>
+        <v>0.6429363503952431</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7245878150446706</v>
+        <v>0.7247448604460814</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>601</v>
@@ -1003,19 +1003,19 @@
         <v>619257</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>590915</v>
+        <v>584233</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>651399</v>
+        <v>649673</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6211056046374535</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5926790811644612</v>
+        <v>0.5859765112481548</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6533435179025614</v>
+        <v>0.6516123033165577</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>218092</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>195632</v>
+        <v>197068</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>241986</v>
+        <v>240788</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4423097151650096</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3967588275293701</v>
+        <v>0.3996707551961367</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4907699581022032</v>
+        <v>0.4883397234260771</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>156</v>
@@ -1053,19 +1053,19 @@
         <v>159675</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>138794</v>
+        <v>138715</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>180331</v>
+        <v>179942</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3168474183038418</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2754121849553297</v>
+        <v>0.2752551395539186</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3578352760632525</v>
+        <v>0.3570636496047565</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>363</v>
@@ -1074,19 +1074,19 @@
         <v>377767</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>345625</v>
+        <v>347351</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>406109</v>
+        <v>412791</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3788943953625466</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3466564820974384</v>
+        <v>0.3483876966834421</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4073209188355386</v>
+        <v>0.4140234887518451</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>86084</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70842</v>
+        <v>70931</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>102193</v>
+        <v>103758</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2699877043215715</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2221828495203911</v>
+        <v>0.222460275001165</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3205098246981128</v>
+        <v>0.3254184374613468</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -1199,19 +1199,19 @@
         <v>137407</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120253</v>
+        <v>118708</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156259</v>
+        <v>155075</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4096657927961467</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3585231193762923</v>
+        <v>0.3539162610149415</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4658721498211563</v>
+        <v>0.4623407936608961</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>218</v>
@@ -1220,19 +1220,19 @@
         <v>223491</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>196274</v>
+        <v>201059</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>246333</v>
+        <v>249372</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3415951030517265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2999942451441712</v>
+        <v>0.3073082981724864</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.376507717229863</v>
+        <v>0.3811528877136907</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>232762</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>216653</v>
+        <v>215088</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>248004</v>
+        <v>247915</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7300122956784285</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.679490175301887</v>
+        <v>0.6745815625386533</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7778171504796089</v>
+        <v>0.7775397249988351</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>199</v>
@@ -1270,19 +1270,19 @@
         <v>198005</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>179153</v>
+        <v>180337</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>215159</v>
+        <v>216704</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5903342072038532</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5341278501788437</v>
+        <v>0.5376592063391039</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6414768806237078</v>
+        <v>0.6460837389850586</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>427</v>
@@ -1291,19 +1291,19 @@
         <v>430767</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>407925</v>
+        <v>404886</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>457984</v>
+        <v>453199</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6584048969482735</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6234922827701374</v>
+        <v>0.6188471122863093</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7000057548558288</v>
+        <v>0.6926917018275136</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>149473</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>129820</v>
+        <v>130234</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>168737</v>
+        <v>168702</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4167425762767381</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3619472527920885</v>
+        <v>0.36310030233316</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4704497943139883</v>
+        <v>0.4703522574229156</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>193</v>
@@ -1416,19 +1416,19 @@
         <v>187071</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>168866</v>
+        <v>168883</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>207359</v>
+        <v>206049</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5036167106817553</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4546052971943935</v>
+        <v>0.4546522951025722</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5582335371205284</v>
+        <v>0.5547071207538581</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>343</v>
@@ -1437,19 +1437,19 @@
         <v>336545</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>309052</v>
+        <v>309725</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>360804</v>
+        <v>363320</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4609402460345428</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4232846517337823</v>
+        <v>0.4242074701383243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4941655273199996</v>
+        <v>0.4976119900308012</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>209198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>189934</v>
+        <v>189969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>228851</v>
+        <v>228437</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5832574237232618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5295502056860116</v>
+        <v>0.5296477425770845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6380527472079115</v>
+        <v>0.6368996976668404</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>191</v>
@@ -1487,19 +1487,19 @@
         <v>184385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>164097</v>
+        <v>165407</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>202590</v>
+        <v>202573</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4963832893182448</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4417664628794711</v>
+        <v>0.4452928792461418</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5453947028056065</v>
+        <v>0.5453477048974278</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>403</v>
@@ -1508,19 +1508,19 @@
         <v>393582</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>369323</v>
+        <v>366807</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>421075</v>
+        <v>420402</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5390597539654572</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5058344726800004</v>
+        <v>0.5023880099691987</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5767153482662176</v>
+        <v>0.5757925298616758</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>97593</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82926</v>
+        <v>83663</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111904</v>
+        <v>112318</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4800254465230484</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4078823533792417</v>
+        <v>0.4115108878409148</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5504174998433776</v>
+        <v>0.5524541620208843</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -1633,19 +1633,19 @@
         <v>124458</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>110177</v>
+        <v>110563</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>139558</v>
+        <v>139153</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5993136603718174</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.530541538689274</v>
+        <v>0.5324049023843396</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6720235577729057</v>
+        <v>0.6700761819071414</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>222</v>
@@ -1654,19 +1654,19 @@
         <v>222051</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>200732</v>
+        <v>201662</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>243078</v>
+        <v>242034</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5403023045900462</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4884278292965915</v>
+        <v>0.4906904835702107</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5914662522620349</v>
+        <v>0.588924354279328</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>105715</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>91404</v>
+        <v>90990</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>120382</v>
+        <v>119645</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5199745534769515</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4495825001566224</v>
+        <v>0.4475458379791157</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5921176466207583</v>
+        <v>0.5884891121590852</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>78</v>
@@ -1704,19 +1704,19 @@
         <v>83210</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>68110</v>
+        <v>68515</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>97491</v>
+        <v>97105</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4006863396281826</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3279764422270943</v>
+        <v>0.3299238180928586</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4694584613107258</v>
+        <v>0.4675950976156605</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>182</v>
@@ -1725,19 +1725,19 @@
         <v>188925</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>167898</v>
+        <v>168942</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>210244</v>
+        <v>209314</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4596976954099537</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4085337477379651</v>
+        <v>0.411075645720672</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5115721707034084</v>
+        <v>0.5093095164297893</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>92392</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>78420</v>
+        <v>77667</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>108935</v>
+        <v>109078</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3411680843144135</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.289575341085658</v>
+        <v>0.2867932053531341</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4022540992203537</v>
+        <v>0.402784557937385</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>127</v>
@@ -1850,19 +1850,19 @@
         <v>129450</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>112958</v>
+        <v>112307</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>145149</v>
+        <v>146348</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4654052943747773</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4061125886620314</v>
+        <v>0.40377160434409</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5218491859060705</v>
+        <v>0.526160029137789</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>219</v>
@@ -1871,19 +1871,19 @@
         <v>221842</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>199493</v>
+        <v>199908</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>244635</v>
+        <v>244706</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4041164759009592</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3634043820975961</v>
+        <v>0.3641615167317204</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4456369107543025</v>
+        <v>0.445766470611233</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>178419</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>161876</v>
+        <v>161733</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>192391</v>
+        <v>193144</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6588319156855864</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5977459007796462</v>
+        <v>0.5972154420626149</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.710424658914342</v>
+        <v>0.7132067946468659</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>143</v>
@@ -1921,19 +1921,19 @@
         <v>148694</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>132995</v>
+        <v>131796</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>165186</v>
+        <v>165837</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5345947056252227</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4781508140939294</v>
+        <v>0.4738399708622109</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5938874113379686</v>
+        <v>0.5962283956559099</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>317</v>
@@ -1942,19 +1942,19 @@
         <v>327113</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>304320</v>
+        <v>304249</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>349462</v>
+        <v>349047</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5958835240990408</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5543630892456979</v>
+        <v>0.554233529388767</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6365956179024039</v>
+        <v>0.6358384832682796</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>216567</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>193267</v>
+        <v>191782</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>241550</v>
+        <v>242782</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3521254723784799</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.314242112713144</v>
+        <v>0.311827585210274</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3927468532859561</v>
+        <v>0.39474960537893</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>302</v>
@@ -2067,19 +2067,19 @@
         <v>312135</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>287240</v>
+        <v>285541</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>337181</v>
+        <v>336847</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4890717756524802</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4500644076502381</v>
+        <v>0.4474032155143629</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5283154253277661</v>
+        <v>0.5277929399279891</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>509</v>
@@ -2088,19 +2088,19 @@
         <v>528702</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>491385</v>
+        <v>491566</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>563165</v>
+        <v>561501</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4218657588304253</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3920898819310971</v>
+        <v>0.3922340022230478</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4493651041255116</v>
+        <v>0.4480376147451945</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>398460</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>373477</v>
+        <v>372245</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>421760</v>
+        <v>423245</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6478745276215201</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.607253146714044</v>
+        <v>0.60525039462107</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6857578872868564</v>
+        <v>0.688172414789726</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>319</v>
@@ -2138,19 +2138,19 @@
         <v>326084</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>301038</v>
+        <v>301372</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>350979</v>
+        <v>352678</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5109282243475198</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.471684574672234</v>
+        <v>0.4722070600720108</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5499355923497619</v>
+        <v>0.5525967844856371</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>710</v>
@@ -2159,19 +2159,19 @@
         <v>724544</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>690081</v>
+        <v>691745</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>761861</v>
+        <v>761680</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5781342411695747</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5506348958744882</v>
+        <v>0.5519623852548053</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6079101180689027</v>
+        <v>0.6077659977769522</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>386737</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>359142</v>
+        <v>361288</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>411474</v>
+        <v>418124</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.519950624115184</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4828504899642399</v>
+        <v>0.4857357349136079</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5532085770905523</v>
+        <v>0.5621494049779703</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>433</v>
@@ -2284,19 +2284,19 @@
         <v>459577</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>431536</v>
+        <v>429928</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>486828</v>
+        <v>488149</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5865608742128385</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5507719530637145</v>
+        <v>0.5487194917083347</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6213417028126181</v>
+        <v>0.623027623396618</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>815</v>
@@ -2305,19 +2305,19 @@
         <v>846314</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>804420</v>
+        <v>804486</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>884870</v>
+        <v>884096</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5541218132769747</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5266922956185011</v>
+        <v>0.5267351896288904</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5793662751235374</v>
+        <v>0.5788598129828377</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>357058</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>332321</v>
+        <v>325671</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>384653</v>
+        <v>382507</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4800493758848161</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4467914229094477</v>
+        <v>0.4378505950220297</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.51714951003576</v>
+        <v>0.5142642650863921</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>312</v>
@@ -2355,19 +2355,19 @@
         <v>323934</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>296683</v>
+        <v>295362</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>351975</v>
+        <v>353583</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4134391257871615</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3786582971873819</v>
+        <v>0.376972376603382</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4492280469362854</v>
+        <v>0.4512805082916652</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>666</v>
@@ -2376,19 +2376,19 @@
         <v>680992</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>642436</v>
+        <v>643210</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>722886</v>
+        <v>722820</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4458781867230252</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4206337248764625</v>
+        <v>0.4211401870171623</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4733077043814984</v>
+        <v>0.4732648103711096</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>1416113</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1358756</v>
+        <v>1362283</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1474694</v>
+        <v>1476078</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4321971455065917</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.414692007002441</v>
+        <v>0.4157683260250113</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4500762056060974</v>
+        <v>0.45049844778864</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1782</v>
@@ -2501,19 +2501,19 @@
         <v>1830898</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1773308</v>
+        <v>1767675</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1888675</v>
+        <v>1886844</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5418144492936345</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5247719197396368</v>
+        <v>0.5231049842803942</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5589122367738513</v>
+        <v>0.5583703995645004</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3164</v>
@@ -2522,19 +2522,19 @@
         <v>3247011</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3168994</v>
+        <v>3168640</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3332888</v>
+        <v>3329927</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.487851131820891</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4761293522187702</v>
+        <v>0.4760762846735229</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5007538817860366</v>
+        <v>0.5003090539878823</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1860430</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1801849</v>
+        <v>1800465</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1917787</v>
+        <v>1914260</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5678028544934083</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5499237943939027</v>
+        <v>0.54950155221136</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5853079929975593</v>
+        <v>0.5842316739749887</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1515</v>
@@ -2572,19 +2572,19 @@
         <v>1548299</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1490522</v>
+        <v>1492353</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1605889</v>
+        <v>1611522</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4581855507063654</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4410877632261487</v>
+        <v>0.4416296004354996</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4752280802603633</v>
+        <v>0.4768950157196057</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3347</v>
@@ -2593,19 +2593,19 @@
         <v>3408730</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3322853</v>
+        <v>3325814</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3486747</v>
+        <v>3487101</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.512148868179109</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4992461182139633</v>
+        <v>0.4996909460121177</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5238706477812297</v>
+        <v>0.5239237153264772</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>165148</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>147590</v>
+        <v>147209</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>182929</v>
+        <v>181752</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5603217326274824</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5007494192412847</v>
+        <v>0.4994571762622001</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6206495656075043</v>
+        <v>0.6166557976580891</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>193</v>
@@ -2962,19 +2962,19 @@
         <v>214959</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>198049</v>
+        <v>197667</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>229823</v>
+        <v>230401</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7483486357784545</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6894783234577189</v>
+        <v>0.6881483717737982</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8000935343498088</v>
+        <v>0.8021058318412929</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>351</v>
@@ -2983,19 +2983,19 @@
         <v>380108</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>356046</v>
+        <v>354184</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>403060</v>
+        <v>404004</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6531247611834836</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6117813591890066</v>
+        <v>0.6085820747373958</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6925629402607028</v>
+        <v>0.6941853702415245</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>129590</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>111809</v>
+        <v>112986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147148</v>
+        <v>147529</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4396782673725176</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3793504343924957</v>
+        <v>0.3833442023419109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4992505807587153</v>
+        <v>0.5005428237377999</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -3033,19 +3033,19 @@
         <v>72286</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57422</v>
+        <v>56844</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>89196</v>
+        <v>89578</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2516513642215455</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1999064656501912</v>
+        <v>0.197894168158707</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3105216765422811</v>
+        <v>0.3118516282262018</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>187</v>
@@ -3054,19 +3054,19 @@
         <v>201875</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>178923</v>
+        <v>177979</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>225937</v>
+        <v>227799</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3468752388165164</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3074370597392974</v>
+        <v>0.3058146297584756</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3882186408109934</v>
+        <v>0.3914179252626043</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>127797</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>108289</v>
+        <v>108528</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>150828</v>
+        <v>149305</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2527987575779356</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2142110004949805</v>
+        <v>0.2146826452338398</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.298357412885337</v>
+        <v>0.2953457284067607</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>201</v>
@@ -3179,19 +3179,19 @@
         <v>217092</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194210</v>
+        <v>193254</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>241951</v>
+        <v>241172</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4144844441257762</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3707952862856911</v>
+        <v>0.3689709423898958</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4619461784544333</v>
+        <v>0.4604590554560714</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>319</v>
@@ -3200,19 +3200,19 @@
         <v>344889</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>317316</v>
+        <v>315910</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>378744</v>
+        <v>377347</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3350740330311476</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3082861627245768</v>
+        <v>0.3069201650941785</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3679651399353187</v>
+        <v>0.3666081118865067</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>377730</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>354699</v>
+        <v>356222</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>397238</v>
+        <v>396999</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7472012424220643</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7016425871146638</v>
+        <v>0.7046542715932395</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7857889995050196</v>
+        <v>0.7853173547661606</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>279</v>
@@ -3250,19 +3250,19 @@
         <v>306673</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>281814</v>
+        <v>282593</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>329555</v>
+        <v>330511</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5855155558742238</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5380538215455668</v>
+        <v>0.5395409445439284</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.629204713714309</v>
+        <v>0.6310290576101042</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>633</v>
@@ -3271,19 +3271,19 @@
         <v>684403</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>650548</v>
+        <v>651945</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>711976</v>
+        <v>713382</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6649259669688524</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6320348600646812</v>
+        <v>0.6333918881134929</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6917138372754232</v>
+        <v>0.6930798349058214</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>159054</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140499</v>
+        <v>140018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>176172</v>
+        <v>175571</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4908381684233034</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4335783277137732</v>
+        <v>0.4320918957496735</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5436622892907306</v>
+        <v>0.5418085798739909</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>211</v>
@@ -3396,19 +3396,19 @@
         <v>226204</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>206229</v>
+        <v>207297</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>244844</v>
+        <v>243377</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6633168383164909</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.604740949708475</v>
+        <v>0.6078720627656469</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7179751781380771</v>
+        <v>0.7136742969273325</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>367</v>
@@ -3417,19 +3417,19 @@
         <v>385258</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>358499</v>
+        <v>359589</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>409184</v>
+        <v>410204</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5792785286640635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5390428229687393</v>
+        <v>0.5406813631673828</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6152531163498721</v>
+        <v>0.6167874254063166</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>164992</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>147874</v>
+        <v>148475</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>183547</v>
+        <v>184028</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5091618315766966</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4563377107092694</v>
+        <v>0.4581914201260091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5664216722862269</v>
+        <v>0.5679081042503266</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>106</v>
@@ -3467,19 +3467,19 @@
         <v>114816</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>96176</v>
+        <v>97643</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>134791</v>
+        <v>133723</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.336683161683509</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.282024821861923</v>
+        <v>0.2863257030726675</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3952590502915252</v>
+        <v>0.392127937234353</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>269</v>
@@ -3488,19 +3488,19 @@
         <v>279808</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>255882</v>
+        <v>254862</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>306567</v>
+        <v>305477</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4207214713359365</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3847468836501279</v>
+        <v>0.3832125745936834</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4609571770312607</v>
+        <v>0.4593186368326173</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>241064</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>221475</v>
+        <v>220422</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>261115</v>
+        <v>260741</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6445875825829247</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5922074021620981</v>
+        <v>0.5893920199976382</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6982016402694882</v>
+        <v>0.6972012290735276</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>278</v>
@@ -3613,19 +3613,19 @@
         <v>291215</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>271541</v>
+        <v>272974</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>308334</v>
+        <v>307767</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7487200807705219</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6981380676397678</v>
+        <v>0.7018208811291574</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7927322210989468</v>
+        <v>0.7912748876253368</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>502</v>
@@ -3634,19 +3634,19 @@
         <v>532280</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>505249</v>
+        <v>504814</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>558549</v>
+        <v>554792</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6976753805828362</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.662245518766392</v>
+        <v>0.6616755634071508</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7321075561734783</v>
+        <v>0.7271826190131304</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>132918</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>112867</v>
+        <v>113241</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>152507</v>
+        <v>153560</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3554124174170753</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3017983597305118</v>
+        <v>0.3027987709264723</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4077925978379018</v>
+        <v>0.4106079800023617</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>93</v>
@@ -3684,19 +3684,19 @@
         <v>97736</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>80617</v>
+        <v>81184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>117410</v>
+        <v>115977</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2512799192294781</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2072677789010532</v>
+        <v>0.2087251123746632</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.301861932360232</v>
+        <v>0.2981791188708426</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>213</v>
@@ -3705,19 +3705,19 @@
         <v>230653</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>204384</v>
+        <v>208141</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>257684</v>
+        <v>258119</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3023246194171638</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2678924438265215</v>
+        <v>0.2728173809868695</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3377544812336079</v>
+        <v>0.338324436592849</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>77923</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65070</v>
+        <v>64924</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>93499</v>
+        <v>94066</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3664924878372565</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.30604321944005</v>
+        <v>0.3053571296543086</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4397531210770246</v>
+        <v>0.4424189245640261</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>106</v>
@@ -3830,19 +3830,19 @@
         <v>110704</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>94567</v>
+        <v>96089</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>125802</v>
+        <v>125551</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5041384953705867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4306495279879137</v>
+        <v>0.4375813442144184</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5728940523531195</v>
+        <v>0.5717496661208334</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>178</v>
@@ -3851,19 +3851,19 @@
         <v>188627</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>166859</v>
+        <v>168637</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>209221</v>
+        <v>210654</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4364258341749629</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3860606167468975</v>
+        <v>0.3901744479775053</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4840745836548087</v>
+        <v>0.4873886059830753</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>134695</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>119119</v>
+        <v>118552</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>147548</v>
+        <v>147694</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6335075121627435</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5602468789229754</v>
+        <v>0.5575810754359741</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.69395678055995</v>
+        <v>0.6946428703456915</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>106</v>
@@ -3901,19 +3901,19 @@
         <v>108887</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>93789</v>
+        <v>94040</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>125024</v>
+        <v>123502</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4958615046294133</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4271059476468806</v>
+        <v>0.4282503338791666</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5693504720120862</v>
+        <v>0.5624186557855816</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>230</v>
@@ -3922,19 +3922,19 @@
         <v>243582</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>222988</v>
+        <v>221555</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>265350</v>
+        <v>263572</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5635741658250371</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5159254163451913</v>
+        <v>0.5126113940169247</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6139393832531027</v>
+        <v>0.6098255520224948</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>148695</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>132135</v>
+        <v>132132</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>165147</v>
+        <v>164548</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.542720527639075</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4822768931658794</v>
+        <v>0.4822682716556419</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6027673112275104</v>
+        <v>0.6005812948608733</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>172</v>
@@ -4047,19 +4047,19 @@
         <v>177150</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>162406</v>
+        <v>159643</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>193873</v>
+        <v>192161</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6326078910595444</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5799557733073494</v>
+        <v>0.570091117098173</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6923284240297514</v>
+        <v>0.6862144519019178</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>311</v>
@@ -4068,19 +4068,19 @@
         <v>325845</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>303255</v>
+        <v>302952</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>348097</v>
+        <v>348225</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5881550092365662</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5473793560861374</v>
+        <v>0.5468326006121157</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6283204772795922</v>
+        <v>0.6285522424740506</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>125286</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>108834</v>
+        <v>109433</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>141846</v>
+        <v>141849</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.457279472360925</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3972326887724899</v>
+        <v>0.3994187051391269</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5177231068341207</v>
+        <v>0.5177317283443582</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>97</v>
@@ -4118,19 +4118,19 @@
         <v>102881</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>86158</v>
+        <v>87870</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>117625</v>
+        <v>120388</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3673921089404556</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3076715759702487</v>
+        <v>0.3137855480980823</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4200442266926507</v>
+        <v>0.429908882901827</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>219</v>
@@ -4139,19 +4139,19 @@
         <v>228167</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>205915</v>
+        <v>205787</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>250757</v>
+        <v>251060</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4118449907634339</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3716795227204082</v>
+        <v>0.3714477575259497</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4526206439138628</v>
+        <v>0.4531673993878844</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>365297</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>339778</v>
+        <v>336323</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>391162</v>
+        <v>389232</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5511514290197161</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.512648917925036</v>
+        <v>0.507437508144271</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5901759187523595</v>
+        <v>0.5872651390479223</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>411</v>
@@ -4264,19 +4264,19 @@
         <v>452857</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>426195</v>
+        <v>427037</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>479693</v>
+        <v>479653</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6526702334183412</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6142440859431362</v>
+        <v>0.615457200406113</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.691346628028344</v>
+        <v>0.6912895705359471</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>750</v>
@@ -4285,19 +4285,19 @@
         <v>818154</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>782305</v>
+        <v>781075</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>857957</v>
+        <v>852740</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6030731411737967</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5766488223110722</v>
+        <v>0.575742212812148</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6324124345490791</v>
+        <v>0.6285668316198995</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>297491</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>271626</v>
+        <v>273556</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>323010</v>
+        <v>326465</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4488485709802839</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4098240812476403</v>
+        <v>0.4127348609520776</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4873510820749639</v>
+        <v>0.492562491855729</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>225</v>
@@ -4335,19 +4335,19 @@
         <v>240996</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>214160</v>
+        <v>214200</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>267658</v>
+        <v>266816</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3473297665816588</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.308653371971656</v>
+        <v>0.3087104294640529</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3857559140568638</v>
+        <v>0.384542799593887</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>504</v>
@@ -4356,19 +4356,19 @@
         <v>538487</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>498684</v>
+        <v>503901</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>574336</v>
+        <v>575566</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3969268588262033</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3675875654509209</v>
+        <v>0.3714331683801005</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4233511776889278</v>
+        <v>0.424257787187852</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>394215</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>367020</v>
+        <v>365154</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>425625</v>
+        <v>422739</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5059884733503864</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4710830131707551</v>
+        <v>0.4686881654853091</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5463049995515525</v>
+        <v>0.5426006719514814</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>466</v>
@@ -4481,19 +4481,19 @@
         <v>511141</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>482187</v>
+        <v>480714</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>540269</v>
+        <v>539147</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.620427142938907</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5852829278133949</v>
+        <v>0.5834953879816756</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6557826896152104</v>
+        <v>0.6544209968868557</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>829</v>
@@ -4502,19 +4502,19 @@
         <v>905355</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>860755</v>
+        <v>863665</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>944239</v>
+        <v>949081</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5648053838360885</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5369817268334919</v>
+        <v>0.5387968973449972</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.589062679970352</v>
+        <v>0.5920837995166768</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>384883</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>353473</v>
+        <v>356359</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>412078</v>
+        <v>413944</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4940115266496135</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4536950004484475</v>
+        <v>0.4573993280485184</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5289169868292449</v>
+        <v>0.5313118345146908</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>291</v>
@@ -4552,19 +4552,19 @@
         <v>312712</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>283584</v>
+        <v>284706</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>341666</v>
+        <v>343139</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.379572857061093</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3442173103847895</v>
+        <v>0.3455790031131442</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4147170721866051</v>
+        <v>0.4165046120183243</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>645</v>
@@ -4573,19 +4573,19 @@
         <v>697596</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>658712</v>
+        <v>653870</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>742196</v>
+        <v>739286</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4351946161639115</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4109373200296479</v>
+        <v>0.4079162004833232</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4630182731665083</v>
+        <v>0.4612031026550028</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1679193</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1620051</v>
+        <v>1617467</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1739126</v>
+        <v>1739967</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4900206961911181</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4727619155116248</v>
+        <v>0.4720079417561156</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5075103626492773</v>
+        <v>0.5077559641525569</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2038</v>
@@ -4698,19 +4698,19 @@
         <v>2201324</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2141764</v>
+        <v>2137402</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2262867</v>
+        <v>2258182</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6186431929966874</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.601905128453436</v>
+        <v>0.6006790568844488</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6359387755816222</v>
+        <v>0.6346222743435425</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3607</v>
@@ -4719,19 +4719,19 @@
         <v>3880516</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3796052</v>
+        <v>3791818</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3967393</v>
+        <v>3966320</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5555429348129856</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5434508822586638</v>
+        <v>0.5428446471638374</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5679803352596084</v>
+        <v>0.567826732978135</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1747586</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1687653</v>
+        <v>1686812</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1806728</v>
+        <v>1809312</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5099793038088819</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4924896373507227</v>
+        <v>0.492244035847443</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5272380844883751</v>
+        <v>0.5279920582438843</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1260</v>
@@ -4769,19 +4769,19 @@
         <v>1356985</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1295442</v>
+        <v>1300127</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1416545</v>
+        <v>1420907</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3813568070033126</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3640612244183778</v>
+        <v>0.3653777256564579</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3980948715465641</v>
+        <v>0.3993209431155514</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2900</v>
@@ -4790,19 +4790,19 @@
         <v>3104572</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3017695</v>
+        <v>3018768</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3189036</v>
+        <v>3193270</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4444570651870144</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4320196647403913</v>
+        <v>0.4321732670218649</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4565491177413359</v>
+        <v>0.4571553528361624</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>164971</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>148056</v>
+        <v>144717</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>183101</v>
+        <v>181244</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5615815470291646</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5040032004840976</v>
+        <v>0.4926363260973035</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6232991115421509</v>
+        <v>0.6169779436946822</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>185</v>
@@ -5159,19 +5159,19 @@
         <v>193828</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>176863</v>
+        <v>176235</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>208392</v>
+        <v>208303</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6713759617061857</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.61261364932976</v>
+        <v>0.6104367156099668</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7218227399462969</v>
+        <v>0.7215139621604942</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>336</v>
@@ -5180,19 +5180,19 @@
         <v>358799</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>332629</v>
+        <v>333632</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>381925</v>
+        <v>382543</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6160020379905888</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5710721075155123</v>
+        <v>0.5727945219911188</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6557054923949155</v>
+        <v>0.6567672084294727</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>128790</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>110660</v>
+        <v>112517</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>145705</v>
+        <v>149044</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4384184529708354</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3767008884578492</v>
+        <v>0.3830220563053178</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4959967995159024</v>
+        <v>0.5073636739026965</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>92</v>
@@ -5230,19 +5230,19 @@
         <v>94875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>80311</v>
+        <v>80400</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>111840</v>
+        <v>112468</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3286240382938143</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.278177260053703</v>
+        <v>0.2784860378395059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3873863506702397</v>
+        <v>0.3895632843900335</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>207</v>
@@ -5251,19 +5251,19 @@
         <v>223665</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>200539</v>
+        <v>199921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>249835</v>
+        <v>248832</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3839979620094111</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3442945076050845</v>
+        <v>0.3432327915705274</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4289278924844878</v>
+        <v>0.4272054780088816</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>105959</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>87412</v>
+        <v>87224</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124391</v>
+        <v>123903</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.210832762050645</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1739287624610499</v>
+        <v>0.1735549498743091</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.247507655195738</v>
+        <v>0.2465356095277687</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>141</v>
@@ -5376,19 +5376,19 @@
         <v>151391</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>130636</v>
+        <v>130249</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>174362</v>
+        <v>172722</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2894191325797402</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2497425403830569</v>
+        <v>0.2490020268780949</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.333335399158616</v>
+        <v>0.330200027881076</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>244</v>
@@ -5397,19 +5397,19 @@
         <v>257350</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>227240</v>
+        <v>232021</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>286214</v>
+        <v>285878</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2509116367562919</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2215555106619693</v>
+        <v>0.2262168707483354</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2790533842871132</v>
+        <v>0.2787265713851256</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>396616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>378184</v>
+        <v>378672</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>415163</v>
+        <v>415351</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7891672379493551</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.752492344804262</v>
+        <v>0.7534643904722311</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.82607123753895</v>
+        <v>0.8264450501256909</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>343</v>
@@ -5447,19 +5447,19 @@
         <v>371693</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>348722</v>
+        <v>350362</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>392448</v>
+        <v>392835</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7105808674202597</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6666646008413835</v>
+        <v>0.6697999721189239</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7502574596169426</v>
+        <v>0.7509979731219049</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>715</v>
@@ -5468,19 +5468,19 @@
         <v>768309</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>739445</v>
+        <v>739781</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>798419</v>
+        <v>793638</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7490883632437081</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7209466157128879</v>
+        <v>0.7212734286148744</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7784444893380308</v>
+        <v>0.7737831292516646</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>155616</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140186</v>
+        <v>139472</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>174812</v>
+        <v>173468</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.48849191585874</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4400558082142152</v>
+        <v>0.437812964946259</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5487468380767967</v>
+        <v>0.5445290634377616</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>203</v>
@@ -5593,19 +5593,19 @@
         <v>205655</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>188864</v>
+        <v>189569</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>223763</v>
+        <v>223546</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6115056284586536</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5615780873584606</v>
+        <v>0.5636761379738381</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6653500775397692</v>
+        <v>0.6647027367479341</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>367</v>
@@ -5614,19 +5614,19 @@
         <v>361271</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>334347</v>
+        <v>337531</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>385208</v>
+        <v>385167</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5516653185922092</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5105512041741708</v>
+        <v>0.515414277571282</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5882162464582283</v>
+        <v>0.5881542464916814</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>162949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>143753</v>
+        <v>145097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>178379</v>
+        <v>179093</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.51150808414126</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4512531619232034</v>
+        <v>0.4554709365622383</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5599441917857848</v>
+        <v>0.5621870350537408</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>129</v>
@@ -5664,19 +5664,19 @@
         <v>130654</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112546</v>
+        <v>112763</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>147445</v>
+        <v>146740</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3884943715413464</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.334649922460231</v>
+        <v>0.3352972632520671</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4384219126415395</v>
+        <v>0.4363238620261622</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>300</v>
@@ -5685,19 +5685,19 @@
         <v>293603</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>269666</v>
+        <v>269707</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>320527</v>
+        <v>317343</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4483346814077908</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4117837535417718</v>
+        <v>0.4118457535083186</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4894487958258295</v>
+        <v>0.4845857224287181</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>163330</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>145331</v>
+        <v>144508</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>182804</v>
+        <v>182841</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4414758157125077</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3928252396227535</v>
+        <v>0.3905989761536078</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4941138427803651</v>
+        <v>0.4942121360855773</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>193</v>
@@ -5810,19 +5810,19 @@
         <v>209846</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>190802</v>
+        <v>190023</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>230695</v>
+        <v>229574</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5418427795026342</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4926694082516812</v>
+        <v>0.4906573475707167</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5956765863772973</v>
+        <v>0.5927814670038744</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>349</v>
@@ -5831,19 +5831,19 @@
         <v>373177</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>345185</v>
+        <v>347119</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>404183</v>
+        <v>400914</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4928070444562233</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4558417469523693</v>
+        <v>0.4583964954588959</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5337532529988146</v>
+        <v>0.5294358257196182</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>206634</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>187160</v>
+        <v>187123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>224633</v>
+        <v>225456</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5585241842874923</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5058861572196348</v>
+        <v>0.5057878639144227</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6071747603772465</v>
+        <v>0.6094010238463923</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>165</v>
@@ -5881,19 +5881,19 @@
         <v>177437</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>156588</v>
+        <v>157709</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>196481</v>
+        <v>197260</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4581572204973658</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4043234136227028</v>
+        <v>0.4072185329961259</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5073305917483188</v>
+        <v>0.5093426524292833</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>363</v>
@@ -5902,19 +5902,19 @@
         <v>384070</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>353064</v>
+        <v>356333</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>412062</v>
+        <v>410128</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5071929555437766</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4662467470011853</v>
+        <v>0.4705641742803818</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5441582530476307</v>
+        <v>0.5416035045411042</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>183218</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>171719</v>
+        <v>171952</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>191665</v>
+        <v>191654</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8674255377194876</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8129836301263119</v>
+        <v>0.8140846717212631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9074131493140958</v>
+        <v>0.9073611112715089</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>196</v>
@@ -6027,19 +6027,19 @@
         <v>191996</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>181714</v>
+        <v>180904</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>200450</v>
+        <v>200578</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8783516631215949</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8313099045602456</v>
+        <v>0.8276062244402782</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9170263110519192</v>
+        <v>0.9176133802899979</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>379</v>
@@ -6048,19 +6048,19 @@
         <v>375215</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>360194</v>
+        <v>359023</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>387697</v>
+        <v>387076</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8729822257824037</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8380344305096975</v>
+        <v>0.8353094533550008</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9020246807379378</v>
+        <v>0.9005799141447791</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>28003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19556</v>
+        <v>19567</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39502</v>
+        <v>39269</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1325744622805124</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09258685068590422</v>
+        <v>0.09263888872849103</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1870163698736887</v>
+        <v>0.1859153282787368</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -6098,19 +6098,19 @@
         <v>26591</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18137</v>
+        <v>18009</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36873</v>
+        <v>37683</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1216483368784051</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08297368894808071</v>
+        <v>0.08238661971000218</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1686900954397543</v>
+        <v>0.172393775559722</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>56</v>
@@ -6119,19 +6119,19 @@
         <v>54593</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42111</v>
+        <v>42732</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69614</v>
+        <v>70785</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1270177742175962</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09797531926206202</v>
+        <v>0.09942008585522084</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1619655694903025</v>
+        <v>0.1646905466449989</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>91764</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75521</v>
+        <v>75085</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107209</v>
+        <v>106893</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3487484026018343</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2870189662731283</v>
+        <v>0.285360379958692</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4074484788335943</v>
+        <v>0.4062490400695913</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>117</v>
@@ -6244,19 +6244,19 @@
         <v>124378</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>108890</v>
+        <v>108047</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>141919</v>
+        <v>142077</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.455404202809421</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3986976896013554</v>
+        <v>0.3956085695190426</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5196295882389683</v>
+        <v>0.5202091854907986</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>208</v>
@@ -6265,19 +6265,19 @@
         <v>216141</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>194592</v>
+        <v>192937</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>239367</v>
+        <v>239069</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4030699891752886</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3628844683163148</v>
+        <v>0.359797363978426</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4463826279931945</v>
+        <v>0.4458266800973662</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>171359</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>155914</v>
+        <v>156230</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>187602</v>
+        <v>188038</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6512515973981657</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5925515211664056</v>
+        <v>0.5937509599304086</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7129810337268717</v>
+        <v>0.714639620041308</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>146</v>
@@ -6315,19 +6315,19 @@
         <v>148737</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>131196</v>
+        <v>131038</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>164225</v>
+        <v>165068</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5445957971905789</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4803704117610318</v>
+        <v>0.4797908145092013</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6013023103986448</v>
+        <v>0.6043914304809571</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>314</v>
@@ -6336,19 +6336,19 @@
         <v>320097</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>296871</v>
+        <v>297169</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>341646</v>
+        <v>343301</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5969300108247114</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5536173720068055</v>
+        <v>0.5541733199026337</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6371155316836855</v>
+        <v>0.640202636021574</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>347973</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>321998</v>
+        <v>319495</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>375164</v>
+        <v>375444</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5299960777429884</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4904335460986185</v>
+        <v>0.4866206013965708</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5714097281646029</v>
+        <v>0.5718369293529353</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>367</v>
@@ -6461,19 +6461,19 @@
         <v>397217</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>368415</v>
+        <v>370616</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>422288</v>
+        <v>421483</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5745994938367868</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5329350631108583</v>
+        <v>0.5361198602759647</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6108655422749735</v>
+        <v>0.6097011960936137</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>671</v>
@@ -6482,19 +6482,19 @@
         <v>745190</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>706571</v>
+        <v>709508</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>780639</v>
+        <v>786053</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5528725315393659</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5242201129325993</v>
+        <v>0.5263987212984398</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5791725413947048</v>
+        <v>0.5831897677124923</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>308585</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>281394</v>
+        <v>281114</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>334560</v>
+        <v>337063</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4700039222570117</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4285902718353971</v>
+        <v>0.4281630706470646</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5095664539013817</v>
+        <v>0.5133793986034286</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>279</v>
@@ -6532,19 +6532,19 @@
         <v>294077</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>269006</v>
+        <v>269811</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>322879</v>
+        <v>320678</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4254005061632132</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3891344577250265</v>
+        <v>0.3902988039063863</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4670649368891417</v>
+        <v>0.4638801397240354</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>555</v>
@@ -6553,19 +6553,19 @@
         <v>602662</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>567213</v>
+        <v>561799</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>641281</v>
+        <v>638344</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4471274684606341</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4208274586052953</v>
+        <v>0.4168102322875077</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4757798870674008</v>
+        <v>0.4736012787015604</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>421599</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>394514</v>
+        <v>393117</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>452224</v>
+        <v>451355</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.541494821287241</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5067083306502808</v>
+        <v>0.5049138130750144</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5808298346858209</v>
+        <v>0.5797133078887776</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>427</v>
@@ -6678,19 +6678,19 @@
         <v>469545</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>440593</v>
+        <v>440332</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>499415</v>
+        <v>500626</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5683420952457106</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5332973299091034</v>
+        <v>0.5329824341468998</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6044960366827615</v>
+        <v>0.6059616596206917</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>837</v>
@@ -6699,19 +6699,19 @@
         <v>891144</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>851377</v>
+        <v>848824</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>937090</v>
+        <v>935552</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5553164956008295</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5305358722331915</v>
+        <v>0.5289447300403489</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5839476810606301</v>
+        <v>0.5829890533273855</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>356984</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>326359</v>
+        <v>327228</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>384069</v>
+        <v>385466</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.458505178712759</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4191701653141788</v>
+        <v>0.4202866921112224</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4932916693497189</v>
+        <v>0.4950861869249862</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>328</v>
@@ -6749,19 +6749,19 @@
         <v>356622</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>326752</v>
+        <v>325541</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>385574</v>
+        <v>385835</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4316579047542895</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3955039633172385</v>
+        <v>0.3940383403793084</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4667026700908966</v>
+        <v>0.4670175658531002</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>668</v>
@@ -6770,19 +6770,19 @@
         <v>713606</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>667660</v>
+        <v>669198</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>753373</v>
+        <v>755926</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4446835043991705</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4160523189393699</v>
+        <v>0.4170109466726146</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4694641277668084</v>
+        <v>0.4710552699596512</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1634431</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1577380</v>
+        <v>1570431</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1697191</v>
+        <v>1691418</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4815150355797339</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4647076255515625</v>
+        <v>0.4626602087230561</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.500004738047739</v>
+        <v>0.4983040676580651</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1829</v>
@@ -6895,19 +6895,19 @@
         <v>1943857</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1884316</v>
+        <v>1878866</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2005065</v>
+        <v>2003528</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5484084415923026</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5316105152113435</v>
+        <v>0.5300729822659244</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5656768869817007</v>
+        <v>0.5652430059532721</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3391</v>
@@ -6916,19 +6916,19 @@
         <v>3578287</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3493703</v>
+        <v>3496204</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3664130</v>
+        <v>3654894</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5156856892484182</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5034957511439434</v>
+        <v>0.5038563021554011</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5280568980529647</v>
+        <v>0.5267258262939751</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1759919</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1697159</v>
+        <v>1702932</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1816970</v>
+        <v>1823919</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5184849644202661</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4999952619522611</v>
+        <v>0.5016959323419349</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5352923744484377</v>
+        <v>0.5373397912769439</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1509</v>
@@ -6966,19 +6966,19 @@
         <v>1600685</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1539477</v>
+        <v>1541014</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1660226</v>
+        <v>1665676</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4515915584076973</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4343231130182993</v>
+        <v>0.4347569940467276</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4683894847886564</v>
+        <v>0.4699270177340757</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3178</v>
@@ -6987,19 +6987,19 @@
         <v>3360605</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3274762</v>
+        <v>3283998</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3445189</v>
+        <v>3442688</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4843143107515819</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4719431019470353</v>
+        <v>0.4732741737060251</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4965042488560567</v>
+        <v>0.4961436978445989</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>107179</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92329</v>
+        <v>91181</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>126045</v>
+        <v>124542</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3361477608350682</v>
+        <v>0.3361477608350683</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2895717988393067</v>
+        <v>0.285972560342238</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3953182675787992</v>
+        <v>0.3906043980078345</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>194</v>
@@ -7356,19 +7356,19 @@
         <v>111362</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>98501</v>
+        <v>96790</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125831</v>
+        <v>124824</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3523431366805895</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3116531812387521</v>
+        <v>0.3062391001030033</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3981227458635798</v>
+        <v>0.3949363374980442</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>306</v>
@@ -7377,19 +7377,19 @@
         <v>218541</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>197850</v>
+        <v>196935</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>242279</v>
+        <v>240380</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3442099330544582</v>
+        <v>0.3442099330544583</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3116208374165829</v>
+        <v>0.3101801189614873</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3815988546623083</v>
+        <v>0.3786079257231027</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>211666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>192800</v>
+        <v>194303</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>226516</v>
+        <v>227664</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6638522391649316</v>
+        <v>0.6638522391649319</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6046817324212013</v>
+        <v>0.6093956019921655</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7104282011606937</v>
+        <v>0.7140274396577622</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>344</v>
@@ -7427,19 +7427,19 @@
         <v>204699</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>190230</v>
+        <v>191237</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>217560</v>
+        <v>219271</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6476568633194104</v>
+        <v>0.6476568633194105</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6018772541364201</v>
+        <v>0.6050636625019556</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6883468187612477</v>
+        <v>0.6937608998969965</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>563</v>
@@ -7448,19 +7448,19 @@
         <v>416365</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>392627</v>
+        <v>394526</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>437056</v>
+        <v>437971</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6557900669455418</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6184011453376916</v>
+        <v>0.621392074276897</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6883791625834171</v>
+        <v>0.6898198810385128</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>147065</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125251</v>
+        <v>123512</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>174865</v>
+        <v>175359</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2776596861683309</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2364753247175558</v>
+        <v>0.2331924874021628</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3301464959055133</v>
+        <v>0.3310801943906681</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>274</v>
@@ -7573,19 +7573,19 @@
         <v>204602</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>186352</v>
+        <v>184893</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>226160</v>
+        <v>224782</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3753936817516496</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3419093183580691</v>
+        <v>0.3392340967811338</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4149473837682576</v>
+        <v>0.4124202318167885</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>383</v>
@@ -7594,19 +7594,19 @@
         <v>351666</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>318008</v>
+        <v>318331</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>385229</v>
+        <v>386403</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3272257475041778</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2959066691027177</v>
+        <v>0.2962073813684813</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3584566484254294</v>
+        <v>0.3595489577486237</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>382593</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>354793</v>
+        <v>354299</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>404407</v>
+        <v>406146</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7223403138316692</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6698535040944866</v>
+        <v>0.6689198056093321</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7635246752824443</v>
+        <v>0.7668075125978371</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>441</v>
@@ -7644,19 +7644,19 @@
         <v>340430</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>318872</v>
+        <v>320250</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>358680</v>
+        <v>360139</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6246063182483503</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5850526162317427</v>
+        <v>0.5875797681832114</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.658090681641931</v>
+        <v>0.6607659032188664</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>713</v>
@@ -7665,19 +7665,19 @@
         <v>723023</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>689460</v>
+        <v>688286</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>756681</v>
+        <v>756358</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6727742524958222</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6415433515745705</v>
+        <v>0.6404510422513761</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7040933308972822</v>
+        <v>0.7037926186315187</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>87520</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72873</v>
+        <v>72685</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>102263</v>
+        <v>102996</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2786633388079161</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.23202599942694</v>
+        <v>0.2314297279170234</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3256037153985671</v>
+        <v>0.3279387337467705</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>214</v>
@@ -7790,19 +7790,19 @@
         <v>133088</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118625</v>
+        <v>117583</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>147719</v>
+        <v>147467</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3787178569499142</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3375610067419869</v>
+        <v>0.3345962543845623</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4203505975364723</v>
+        <v>0.419633879634706</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>320</v>
@@ -7811,19 +7811,19 @@
         <v>220609</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>199467</v>
+        <v>199613</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>243460</v>
+        <v>239497</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3314980949863359</v>
+        <v>0.331498094986336</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2997299831934758</v>
+        <v>0.2999494793358377</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3658352336579702</v>
+        <v>0.3598805526757483</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>226551</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>211808</v>
+        <v>211075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>241198</v>
+        <v>241386</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7213366611920839</v>
+        <v>0.7213366611920838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.674396284601433</v>
+        <v>0.6720612662532296</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7679740005730599</v>
+        <v>0.7685702720829768</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>315</v>
@@ -7861,19 +7861,19 @@
         <v>218330</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>203699</v>
+        <v>203951</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>232793</v>
+        <v>233835</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6212821430500859</v>
+        <v>0.6212821430500858</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5796494024635276</v>
+        <v>0.5803661203652936</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6624389932580135</v>
+        <v>0.6654037456154372</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>567</v>
@@ -7882,19 +7882,19 @@
         <v>444881</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>422030</v>
+        <v>425993</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>466023</v>
+        <v>465877</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6685019050136639</v>
+        <v>0.668501905013664</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6341647663420292</v>
+        <v>0.6401194473242517</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7002700168065243</v>
+        <v>0.7000505206641624</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>115925</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94392</v>
+        <v>92226</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139357</v>
+        <v>138862</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3166126769089633</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2578023254954005</v>
+        <v>0.2518859789156616</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.380609494021275</v>
+        <v>0.3792574768230256</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>251</v>
@@ -8007,19 +8007,19 @@
         <v>172100</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>154040</v>
+        <v>154663</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>193082</v>
+        <v>190698</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4132888514217208</v>
+        <v>0.4132888514217207</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3699195103942308</v>
+        <v>0.371413550289862</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4636767294431715</v>
+        <v>0.4579508322608467</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>349</v>
@@ -8028,19 +8028,19 @@
         <v>288025</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>257894</v>
+        <v>257553</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>317135</v>
+        <v>320478</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3680562238255464</v>
+        <v>0.3680562238255463</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3295524840143054</v>
+        <v>0.3291171019132503</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4052552254879913</v>
+        <v>0.4095267118047863</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>250216</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>226784</v>
+        <v>227279</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>271749</v>
+        <v>273915</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6833873230910367</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6193905059787247</v>
+        <v>0.6207425231769738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7421976745045996</v>
+        <v>0.7481140210843383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>337</v>
@@ -8078,19 +8078,19 @@
         <v>244316</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>223334</v>
+        <v>225718</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>262376</v>
+        <v>261753</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5867111485782793</v>
+        <v>0.5867111485782792</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5363232705568286</v>
+        <v>0.5420491677391535</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6300804896057691</v>
+        <v>0.6285864497101379</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>525</v>
@@ -8099,19 +8099,19 @@
         <v>494532</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>465422</v>
+        <v>462079</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>524663</v>
+        <v>525004</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6319437761744536</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5947447745120088</v>
+        <v>0.5904732881952137</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6704475159856954</v>
+        <v>0.6708828980867498</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>153757</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>141470</v>
+        <v>140456</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>164150</v>
+        <v>164063</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7494048354416294</v>
+        <v>0.7494048354416297</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6895214493622396</v>
+        <v>0.6845788009150278</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8000625488652577</v>
+        <v>0.7996349834188857</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>415</v>
@@ -8224,19 +8224,19 @@
         <v>187013</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>176397</v>
+        <v>176272</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>194538</v>
+        <v>194900</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8306649504276407</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7835108353784922</v>
+        <v>0.7829522016274095</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8640872066847523</v>
+        <v>0.8656943489196461</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>632</v>
@@ -8245,19 +8245,19 @@
         <v>340770</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>325187</v>
+        <v>326099</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>354840</v>
+        <v>355527</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.791919976856986</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.755705885807625</v>
+        <v>0.7578257261748622</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8246168203841724</v>
+        <v>0.8262135936121361</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>51415</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41022</v>
+        <v>41109</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63702</v>
+        <v>64716</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2505951645583704</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1999374511347422</v>
+        <v>0.2003650165811141</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3104785506377601</v>
+        <v>0.3154211990849721</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>72</v>
@@ -8295,19 +8295,19 @@
         <v>38124</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30599</v>
+        <v>30237</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48740</v>
+        <v>48865</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1693350495723593</v>
+        <v>0.1693350495723592</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1359127933152477</v>
+        <v>0.134305651080354</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2164891646215077</v>
+        <v>0.2170477983725906</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>133</v>
@@ -8316,19 +8316,19 @@
         <v>89539</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75469</v>
+        <v>74782</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>105122</v>
+        <v>104210</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2080800231430139</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1753831796158276</v>
+        <v>0.173786406387864</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2442941141923741</v>
+        <v>0.2421742738251378</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>92584</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>79081</v>
+        <v>79873</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>106390</v>
+        <v>107175</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.34261200986912</v>
+        <v>0.3426120098691199</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2926442444030118</v>
+        <v>0.2955753021748042</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3937026075807938</v>
+        <v>0.3966083909401639</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>206</v>
@@ -8441,19 +8441,19 @@
         <v>99417</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>87286</v>
+        <v>87832</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111683</v>
+        <v>112216</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3769364432003379</v>
+        <v>0.3769364432003378</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3309420676262846</v>
+        <v>0.3330130615156915</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4234431235425671</v>
+        <v>0.4254637798249833</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>350</v>
@@ -8462,19 +8462,19 @@
         <v>192001</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>174351</v>
+        <v>174089</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>210551</v>
+        <v>212460</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3595659733140103</v>
+        <v>0.3595659733140104</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3265130827881763</v>
+        <v>0.3260218233596447</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3943042875209362</v>
+        <v>0.3978805275987745</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>177646</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>163840</v>
+        <v>163055</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>191149</v>
+        <v>190357</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6573879901308801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6062973924192062</v>
+        <v>0.603391609059836</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7073557555969883</v>
+        <v>0.7044246978251958</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>254</v>
@@ -8512,19 +8512,19 @@
         <v>164333</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>152067</v>
+        <v>151534</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>176464</v>
+        <v>175918</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6230635567996623</v>
+        <v>0.6230635567996619</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5765568764574329</v>
+        <v>0.5745362201750166</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6690579323737154</v>
+        <v>0.6669869384843082</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>480</v>
@@ -8533,19 +8533,19 @@
         <v>341979</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>323429</v>
+        <v>321520</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>359629</v>
+        <v>359891</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6404340266859896</v>
+        <v>0.6404340266859897</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6056957124790641</v>
+        <v>0.6021194724012251</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6734869172118237</v>
+        <v>0.6739781766403552</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>367088</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>335717</v>
+        <v>334925</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>400214</v>
+        <v>399025</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5136828298586468</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4697845078875346</v>
+        <v>0.4686759953738463</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5600377839444153</v>
+        <v>0.5583735804348641</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>602</v>
@@ -8658,19 +8658,19 @@
         <v>485999</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>460390</v>
+        <v>460590</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>509468</v>
+        <v>511139</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6316904685742253</v>
+        <v>0.6316904685742252</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5984044448871485</v>
+        <v>0.5986646876885892</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6621953705477048</v>
+        <v>0.664367382637898</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>907</v>
@@ -8679,19 +8679,19 @@
         <v>853087</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>812426</v>
+        <v>812752</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>895183</v>
+        <v>893745</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5748632280834453</v>
+        <v>0.5748632280834451</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5474636388703821</v>
+        <v>0.547683257228726</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6032302550852071</v>
+        <v>0.6022613006337418</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>347532</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>314406</v>
+        <v>315595</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>378903</v>
+        <v>379695</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4863171701413533</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4399622160555849</v>
+        <v>0.4416264195651358</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5302154921124653</v>
+        <v>0.5313240046261537</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>354</v>
@@ -8729,19 +8729,19 @@
         <v>283363</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>259894</v>
+        <v>258223</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>308972</v>
+        <v>308772</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3683095314257747</v>
+        <v>0.3683095314257746</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3378046294522951</v>
+        <v>0.335632617362102</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4015955551128513</v>
+        <v>0.4013353123114109</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>643</v>
@@ -8750,19 +8750,19 @@
         <v>630895</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>588799</v>
+        <v>590237</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>671556</v>
+        <v>671230</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4251367719165547</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3967697449147929</v>
+        <v>0.3977386993662581</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4525363611296179</v>
+        <v>0.4523167427712739</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>399864</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>368589</v>
+        <v>369417</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>427469</v>
+        <v>426668</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5021115521591221</v>
+        <v>0.502111552159122</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4628394106006826</v>
+        <v>0.4638795522788347</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5367749774452348</v>
+        <v>0.5357692558741368</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>677</v>
@@ -8875,19 +8875,19 @@
         <v>492607</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>466935</v>
+        <v>467422</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>519984</v>
+        <v>518522</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5946117215356067</v>
+        <v>0.5946117215356068</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5636237152829087</v>
+        <v>0.5642117427505953</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6276586629369556</v>
+        <v>0.6258927858150518</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1106</v>
@@ -8896,19 +8896,19 @@
         <v>892471</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>852277</v>
+        <v>852875</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>930644</v>
+        <v>933147</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5492749659607429</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5245373604454349</v>
+        <v>0.5249054139941739</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5727688486665864</v>
+        <v>0.574309338051896</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>396501</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>368896</v>
+        <v>369697</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>427776</v>
+        <v>426948</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.497888447840878</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4632250225547652</v>
+        <v>0.464230744125863</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5371605893993169</v>
+        <v>0.5361204477211652</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>381</v>
@@ -8946,19 +8946,19 @@
         <v>335844</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>308467</v>
+        <v>309929</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>361516</v>
+        <v>361029</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4053882784643932</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3723413370630442</v>
+        <v>0.3741072141849482</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4363762847170913</v>
+        <v>0.4357882572494046</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>712</v>
@@ -8967,19 +8967,19 @@
         <v>732345</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>694172</v>
+        <v>691669</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>772539</v>
+        <v>771941</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4507250340392572</v>
+        <v>0.4507250340392571</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4272311513334137</v>
+        <v>0.4256906619481041</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.475462639554565</v>
+        <v>0.4750945860058262</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1470982</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1410454</v>
+        <v>1408774</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1536472</v>
+        <v>1532606</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.4184748211465575</v>
+        <v>0.4184748211465576</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4012554461106523</v>
+        <v>0.4007775378943373</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4371058586141767</v>
+        <v>0.4360059590654434</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2833</v>
@@ -9092,19 +9092,19 @@
         <v>1886188</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1832486</v>
+        <v>1829329</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1942731</v>
+        <v>1937551</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5076364165484988</v>
+        <v>0.5076364165484987</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.493183562784454</v>
+        <v>0.4923339000398586</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.522854044632561</v>
+        <v>0.5214599813820711</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4353</v>
@@ -9113,19 +9113,19 @@
         <v>3357170</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3274601</v>
+        <v>3271550</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3444627</v>
+        <v>3433110</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.4642919476804128</v>
+        <v>0.4642919476804127</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4528728016253796</v>
+        <v>0.452450867742862</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4763871265550031</v>
+        <v>0.4747944123894549</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2044121</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1978631</v>
+        <v>1982497</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2104649</v>
+        <v>2106329</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5815251788534423</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5628941413858233</v>
+        <v>0.5639940409345566</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5987445538893479</v>
+        <v>0.5992224621056627</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2498</v>
@@ -9163,19 +9163,19 @@
         <v>1829439</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1772896</v>
+        <v>1778076</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1883141</v>
+        <v>1886298</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.4923635834515013</v>
+        <v>0.4923635834515012</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4771459553674391</v>
+        <v>0.4785400186179291</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5068164372155459</v>
+        <v>0.5076660999601419</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4336</v>
@@ -9184,19 +9184,19 @@
         <v>3873560</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3786103</v>
+        <v>3797620</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3956129</v>
+        <v>3959180</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.5357080523195873</v>
+        <v>0.5357080523195872</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5236128734449971</v>
+        <v>0.5252055876105451</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5471271983746206</v>
+        <v>0.5475491322571374</v>
       </c>
     </row>
     <row r="30">
